--- a/fleetdata.xlsx
+++ b/fleetdata.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sarensnass.sharepoint.com/sites/FS/Shared Documents/UPDATED FILES/Fleet Maintenance - Services/For HTML/GHub Proj-1_FleetData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sarensnass.sharepoint.com/sites/FS/Shared Documents/UPDATED FILES/Fleet Maintenance - Services/Only for me/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{701839C8-EF35-475A-87BB-9791FD490CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0AE070D-9A30-4877-8204-4F52F06EABC3}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{701839C8-EF35-475A-87BB-9791FD490CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D98A7B99-E95E-42E3-BE4F-4B70BF6A9E9C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5E0735-E981-4D65-8766-4471E111115C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles &amp; others" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicles &amp; others'!$A$1:$L$177</definedName>
+    <definedName name="_xlcn.WorksheetConnection_VehiclesothersA1K1501" hidden="1">'Vehicles &amp; others'!$A$2:$K$148</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="538">
   <si>
     <t>QAIG-AT-18</t>
   </si>
@@ -530,12 +532,6 @@
     <t>CRANE</t>
   </si>
   <si>
-    <t>MULTI-AXLES</t>
-  </si>
-  <si>
-    <t>FORKLIFTS</t>
-  </si>
-  <si>
     <t>TELE-HANDLER</t>
   </si>
   <si>
@@ -551,9 +547,6 @@
     <t>SUV</t>
   </si>
   <si>
-    <t>PICKUP_3.TON</t>
-  </si>
-  <si>
     <t>SEDAN</t>
   </si>
   <si>
@@ -575,12 +568,6 @@
     <t>TEREX-DEMAG</t>
   </si>
   <si>
-    <t>KOBELCO</t>
-  </si>
-  <si>
-    <t>SENNEBOGEN</t>
-  </si>
-  <si>
     <t>TADANO</t>
   </si>
   <si>
@@ -1052,12 +1039,6 @@
     <t>T-5499</t>
   </si>
   <si>
-    <t>W/SHOP</t>
-  </si>
-  <si>
-    <t>SHEQ</t>
-  </si>
-  <si>
     <t>K-5954</t>
   </si>
   <si>
@@ -1079,102 +1060,9 @@
     <t>YARD</t>
   </si>
   <si>
-    <t>LTM-1045/1</t>
-  </si>
-  <si>
-    <t>CC1800</t>
-  </si>
-  <si>
-    <t>LR-1400</t>
-  </si>
-  <si>
-    <t>LR-1200</t>
-  </si>
-  <si>
-    <t>LR-1100</t>
-  </si>
-  <si>
-    <t>LTM-1045-3.1</t>
-  </si>
-  <si>
-    <t>LTM-1090-4.1</t>
-  </si>
-  <si>
-    <t>LR-1130</t>
-  </si>
-  <si>
-    <t>LTM-1500---8.1</t>
-  </si>
-  <si>
-    <t>CKE-900---1F</t>
-  </si>
-  <si>
-    <t>LTM-1160-5.1</t>
-  </si>
-  <si>
-    <t>LR-1300</t>
-  </si>
-  <si>
-    <t>LTM-1500-8.1</t>
-  </si>
-  <si>
-    <t>LR-1250</t>
-  </si>
-  <si>
     <t>S5500</t>
   </si>
   <si>
-    <t>LTM-1250-6.1</t>
-  </si>
-  <si>
-    <t>LTM-1100-5.2</t>
-  </si>
-  <si>
-    <t>LR-1750</t>
-  </si>
-  <si>
-    <t>AC-100/4L</t>
-  </si>
-  <si>
-    <t>GR-800EX</t>
-  </si>
-  <si>
-    <t>CC-2800-1</t>
-  </si>
-  <si>
-    <t>AC-130-5</t>
-  </si>
-  <si>
-    <t>SAC-1600-C7</t>
-  </si>
-  <si>
-    <t>SRC-800-T</t>
-  </si>
-  <si>
-    <t>CC-6800</t>
-  </si>
-  <si>
-    <t>SAC-1100-S</t>
-  </si>
-  <si>
-    <t>SCC-8000A</t>
-  </si>
-  <si>
-    <t>SCC-6500A</t>
-  </si>
-  <si>
-    <t>LTM-1650-8.1</t>
-  </si>
-  <si>
-    <t>4-Lines</t>
-  </si>
-  <si>
-    <t>6-Lines</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
     <t>CPCSD-30</t>
   </si>
   <si>
@@ -1247,81 +1135,15 @@
     <t>TGA41.480</t>
   </si>
   <si>
-    <t>-FMX460</t>
-  </si>
-  <si>
     <t>2-AXLE-FLATBED</t>
   </si>
   <si>
-    <t>-4-AXLE-LOWBED</t>
-  </si>
-  <si>
     <t>4-AXLE-LOWBED</t>
   </si>
   <si>
     <t>3-AXLE-HIGHBED</t>
   </si>
   <si>
-    <t>45_TON</t>
-  </si>
-  <si>
-    <t>300_TON</t>
-  </si>
-  <si>
-    <t>400_TON</t>
-  </si>
-  <si>
-    <t>200_TON</t>
-  </si>
-  <si>
-    <t>100_TON</t>
-  </si>
-  <si>
-    <t>90_TON</t>
-  </si>
-  <si>
-    <t>130_TON</t>
-  </si>
-  <si>
-    <t>500_TON</t>
-  </si>
-  <si>
-    <t>160_TON</t>
-  </si>
-  <si>
-    <t>250_TON</t>
-  </si>
-  <si>
-    <t>180_TON</t>
-  </si>
-  <si>
-    <t>750_TON</t>
-  </si>
-  <si>
-    <t>100_TON(AT)</t>
-  </si>
-  <si>
-    <t>80_TON</t>
-  </si>
-  <si>
-    <t>600_TON</t>
-  </si>
-  <si>
-    <t>130_TON(AC)</t>
-  </si>
-  <si>
-    <t>1250_TON</t>
-  </si>
-  <si>
-    <t>110_TON</t>
-  </si>
-  <si>
-    <t>800_TON</t>
-  </si>
-  <si>
-    <t>650_TON</t>
-  </si>
-  <si>
     <t>199Y-3279(QATAR-TD-013065)</t>
   </si>
   <si>
@@ -1614,6 +1436,255 @@
   </si>
   <si>
     <t>QATAR-AL-ATTIYAH</t>
+  </si>
+  <si>
+    <t>K-8404</t>
+  </si>
+  <si>
+    <t>K-8524</t>
+  </si>
+  <si>
+    <t>K-8399</t>
+  </si>
+  <si>
+    <t>K-8388</t>
+  </si>
+  <si>
+    <t>K-8380</t>
+  </si>
+  <si>
+    <t>K-2783</t>
+  </si>
+  <si>
+    <t>K-8392</t>
+  </si>
+  <si>
+    <t>K-8403</t>
+  </si>
+  <si>
+    <t>K-8577</t>
+  </si>
+  <si>
+    <t>K-2056</t>
+  </si>
+  <si>
+    <t>K-8670</t>
+  </si>
+  <si>
+    <t>K-8379</t>
+  </si>
+  <si>
+    <t>K-8389</t>
+  </si>
+  <si>
+    <t>K-0478</t>
+  </si>
+  <si>
+    <t>K-5277</t>
+  </si>
+  <si>
+    <t>K-5278</t>
+  </si>
+  <si>
+    <t>K-5276</t>
+  </si>
+  <si>
+    <t>QAIG-AT-118</t>
+  </si>
+  <si>
+    <t>QAIG-AT-154</t>
+  </si>
+  <si>
+    <t>QAIG-AT-155</t>
+  </si>
+  <si>
+    <t>QAIG-AT-156</t>
+  </si>
+  <si>
+    <t>QAIG-CC-19</t>
+  </si>
+  <si>
+    <t>QAIG-CC-15</t>
+  </si>
+  <si>
+    <t>QAIG-CC-20</t>
+  </si>
+  <si>
+    <t>QAIG-CC-21</t>
+  </si>
+  <si>
+    <t>QAIG-AT-38</t>
+  </si>
+  <si>
+    <t>QAIG-AT-41</t>
+  </si>
+  <si>
+    <t>QAIG-AT-44</t>
+  </si>
+  <si>
+    <t>K-8393</t>
+  </si>
+  <si>
+    <t>QAIG-AT-35</t>
+  </si>
+  <si>
+    <t>QAIG-AT-36</t>
+  </si>
+  <si>
+    <t>T-8524</t>
+  </si>
+  <si>
+    <t>QAIG-AT-28</t>
+  </si>
+  <si>
+    <t>QAIG-CC-39</t>
+  </si>
+  <si>
+    <t>QAIG-RT-61</t>
+  </si>
+  <si>
+    <t>QAIG-CC-54</t>
+  </si>
+  <si>
+    <t>QAIG-RT-45</t>
+  </si>
+  <si>
+    <t>CC 1800</t>
+  </si>
+  <si>
+    <t>CC 2800-1</t>
+  </si>
+  <si>
+    <t>CC 6800</t>
+  </si>
+  <si>
+    <t>SCC 8000A</t>
+  </si>
+  <si>
+    <t>SCC 6500A</t>
+  </si>
+  <si>
+    <t>LR 1400</t>
+  </si>
+  <si>
+    <t>LR 1200</t>
+  </si>
+  <si>
+    <t>LR 1100</t>
+  </si>
+  <si>
+    <t>LR 1130</t>
+  </si>
+  <si>
+    <t>LR 1300</t>
+  </si>
+  <si>
+    <t>LR 1250</t>
+  </si>
+  <si>
+    <t>LR 1750</t>
+  </si>
+  <si>
+    <t>LTM 1045/1</t>
+  </si>
+  <si>
+    <t>LTM 1045-3.1</t>
+  </si>
+  <si>
+    <t>LTM 1090-4.1</t>
+  </si>
+  <si>
+    <t>LTM 1160-5.1</t>
+  </si>
+  <si>
+    <t>LTM 1500-8.1</t>
+  </si>
+  <si>
+    <t>LTM 1250-6.1</t>
+  </si>
+  <si>
+    <t>LTM 1100-5.2</t>
+  </si>
+  <si>
+    <t>LTM 1650-8.1</t>
+  </si>
+  <si>
+    <t>SAC 1600-C7</t>
+  </si>
+  <si>
+    <t>SAC 1100-S</t>
+  </si>
+  <si>
+    <t>SRC 800-T</t>
+  </si>
+  <si>
+    <t>GR 800EX</t>
+  </si>
+  <si>
+    <t>AC 100/4L</t>
+  </si>
+  <si>
+    <t>AC 130-5</t>
+  </si>
+  <si>
+    <t>CKE 900-1F</t>
+  </si>
+  <si>
+    <t>4 Lines</t>
+  </si>
+  <si>
+    <t>6 Lines</t>
+  </si>
+  <si>
+    <t>3 TON PICK-UP</t>
+  </si>
+  <si>
+    <t>FMX460</t>
+  </si>
+  <si>
+    <t>AC 60/3</t>
+  </si>
+  <si>
+    <t>DEMAG CC (TEREX-DEMAG)</t>
+  </si>
+  <si>
+    <t>DEMAG AT (TEREX-DEMAG)</t>
+  </si>
+  <si>
+    <t>TEREX AT (TEREX-DEMAG)</t>
+  </si>
+  <si>
+    <t>AC 350</t>
+  </si>
+  <si>
+    <t>LR 1160</t>
+  </si>
+  <si>
+    <t>LIEBHERR AT</t>
+  </si>
+  <si>
+    <t>LIEBHERR CC</t>
+  </si>
+  <si>
+    <t>KOBELCO CC</t>
+  </si>
+  <si>
+    <t>SENNEBOGEN CC</t>
+  </si>
+  <si>
+    <t>TADANO RT</t>
+  </si>
+  <si>
+    <t>QAIG-TH-22</t>
+  </si>
+  <si>
+    <t>MULTI-AXLES / MODULAR</t>
+  </si>
+  <si>
+    <t>FORKLIFT</t>
+  </si>
+  <si>
+    <t>PICKUP 3.0 TON</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1709,12 +1780,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 3" xfId="1" xr:uid="{C29752E5-8C7E-4504-A590-693493DD2E49}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2045,31 +2156,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H152" sqref="H152"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="37" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2112,10 +2222,10 @@
         <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -2124,10 +2234,10 @@
         <v>15863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>397</v>
+        <v>504</v>
+      </c>
+      <c r="G2" s="12">
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>138</v>
@@ -2136,7 +2246,7 @@
         <v>53395</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2144,10 +2254,10 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>524</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -2156,10 +2266,10 @@
         <v>23606</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>398</v>
+        <v>492</v>
+      </c>
+      <c r="G3" s="10">
+        <v>300</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>138</v>
@@ -2168,7 +2278,7 @@
         <v>55085</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2176,10 +2286,10 @@
         <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -2188,10 +2298,10 @@
         <v>25873</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>399</v>
+        <v>497</v>
+      </c>
+      <c r="G4" s="10">
+        <v>400</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>138</v>
@@ -2200,7 +2310,7 @@
         <v>15104</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2208,10 +2318,10 @@
         <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -2220,10 +2330,10 @@
         <v>59920</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>400</v>
+        <v>498</v>
+      </c>
+      <c r="G5" s="10">
+        <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>138</v>
@@ -2232,7 +2342,7 @@
         <v>135047</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2240,10 +2350,10 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -2252,10 +2362,10 @@
         <v>27491</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>401</v>
+        <v>499</v>
+      </c>
+      <c r="G6" s="10">
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>138</v>
@@ -2264,7 +2374,7 @@
         <v>133080</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2272,10 +2382,10 @@
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -2284,10 +2394,10 @@
         <v>27509</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>397</v>
+        <v>505</v>
+      </c>
+      <c r="G7" s="10">
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>138</v>
@@ -2296,7 +2406,7 @@
         <v>53656</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2304,10 +2414,10 @@
         <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -2316,10 +2426,10 @@
         <v>4438</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>402</v>
+        <v>506</v>
+      </c>
+      <c r="G8" s="10">
+        <v>90</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>138</v>
@@ -2328,7 +2438,7 @@
         <v>61982</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2336,10 +2446,10 @@
         <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -2348,10 +2458,10 @@
         <v>48656</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>403</v>
+        <v>500</v>
+      </c>
+      <c r="G9" s="10">
+        <v>130</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>138</v>
@@ -2360,7 +2470,7 @@
         <v>137072</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2368,10 +2478,10 @@
         <v>152</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -2380,10 +2490,10 @@
         <v>29797</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>402</v>
+        <v>506</v>
+      </c>
+      <c r="G10" s="10">
+        <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>138</v>
@@ -2392,7 +2502,7 @@
         <v>61955</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2400,10 +2510,10 @@
         <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -2412,10 +2522,10 @@
         <v>31478</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>404</v>
+        <v>508</v>
+      </c>
+      <c r="G11" s="10">
+        <v>500</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>138</v>
@@ -2424,7 +2534,7 @@
         <v>73193</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2432,10 +2542,10 @@
         <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>531</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2554,19 @@
         <v>33379</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>402</v>
+        <v>518</v>
+      </c>
+      <c r="G12" s="10">
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2464,10 +2574,10 @@
         <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -2476,10 +2586,10 @@
         <v>50243</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G13" s="10">
+        <v>160</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>138</v>
@@ -2488,7 +2598,7 @@
         <v>67533</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,10 +2606,10 @@
         <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -2508,10 +2618,10 @@
         <v>51734</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>403</v>
+        <v>500</v>
+      </c>
+      <c r="G14" s="10">
+        <v>130</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>138</v>
@@ -2520,7 +2630,7 @@
         <v>137050</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,10 +2638,10 @@
         <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -2540,10 +2650,10 @@
         <v>53379</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>398</v>
+        <v>501</v>
+      </c>
+      <c r="G15" s="10">
+        <v>300</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>138</v>
@@ -2552,7 +2662,7 @@
         <v>138196</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2560,10 +2670,10 @@
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -2572,10 +2682,10 @@
         <v>52658</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G16" s="10">
+        <v>160</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>138</v>
@@ -2584,7 +2694,7 @@
         <v>67306</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2592,10 +2702,10 @@
         <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
@@ -2604,10 +2714,10 @@
         <v>53076</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>404</v>
+        <v>508</v>
+      </c>
+      <c r="G17" s="10">
+        <v>500</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>138</v>
@@ -2616,7 +2726,7 @@
         <v>73379</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2624,10 +2734,10 @@
         <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
@@ -2636,10 +2746,10 @@
         <v>53346</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>406</v>
+        <v>502</v>
+      </c>
+      <c r="G18" s="10">
+        <v>250</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>138</v>
@@ -2648,7 +2758,7 @@
         <v>135154</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2656,10 +2766,10 @@
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
+        <v>532</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>17</v>
@@ -2668,10 +2778,10 @@
         <v>54207</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>407</v>
+        <v>329</v>
+      </c>
+      <c r="G19" s="10">
+        <v>180</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>138</v>
@@ -2680,7 +2790,7 @@
         <v>55005199</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2688,10 +2798,10 @@
         <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>532</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -2700,10 +2810,10 @@
         <v>54205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>407</v>
+        <v>329</v>
+      </c>
+      <c r="G20" s="10">
+        <v>180</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>138</v>
@@ -2712,7 +2822,7 @@
         <v>55005197</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2720,10 +2830,10 @@
         <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -2732,10 +2842,10 @@
         <v>55225</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>406</v>
+        <v>509</v>
+      </c>
+      <c r="G21" s="10">
+        <v>250</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>138</v>
@@ -2744,7 +2854,7 @@
         <v>46014</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2752,10 +2862,10 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
@@ -2764,10 +2874,10 @@
         <v>58256</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>401</v>
+        <v>510</v>
+      </c>
+      <c r="G22" s="10">
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>138</v>
@@ -2776,7 +2886,7 @@
         <v>45087</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2784,10 +2894,10 @@
         <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
@@ -2796,10 +2906,10 @@
         <v>58281</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G23" s="10">
+        <v>160</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>138</v>
@@ -2808,7 +2918,7 @@
         <v>45432</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2816,10 +2926,10 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
@@ -2828,10 +2938,10 @@
         <v>15315</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G24" s="10">
+        <v>160</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>138</v>
@@ -2840,7 +2950,7 @@
         <v>45433</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,10 +2958,10 @@
         <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
@@ -2860,10 +2970,10 @@
         <v>26381</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G25" s="10">
+        <v>160</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>138</v>
@@ -2872,7 +2982,7 @@
         <v>45448</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2880,10 +2990,10 @@
         <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>24</v>
@@ -2892,10 +3002,10 @@
         <v>26121</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G26" s="10">
+        <v>160</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>138</v>
@@ -2904,7 +3014,7 @@
         <v>45449</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,10 +3022,10 @@
         <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
@@ -2924,10 +3034,10 @@
         <v>26471</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>405</v>
+        <v>507</v>
+      </c>
+      <c r="G27" s="10">
+        <v>160</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>138</v>
@@ -2936,7 +3046,7 @@
         <v>45452</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2944,10 +3054,10 @@
         <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
@@ -2956,10 +3066,10 @@
         <v>59918</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>400</v>
+        <v>498</v>
+      </c>
+      <c r="G28" s="10">
+        <v>200</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>138</v>
@@ -2968,7 +3078,7 @@
         <v>135044</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2976,10 +3086,10 @@
         <v>152</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>27</v>
@@ -2988,10 +3098,10 @@
         <v>46743</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>408</v>
+        <v>503</v>
+      </c>
+      <c r="G29" s="10">
+        <v>750</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>138</v>
@@ -3000,7 +3110,7 @@
         <v>74746</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3008,10 +3118,10 @@
         <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>167</v>
+        <v>526</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -3020,10 +3130,10 @@
         <v>38080</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>409</v>
+        <v>516</v>
+      </c>
+      <c r="G30" s="10">
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>138</v>
@@ -3032,7 +3142,7 @@
         <v>10129</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3040,10 +3150,10 @@
         <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
@@ -3052,10 +3162,10 @@
         <v>34881</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G31" s="10">
+        <v>80</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>138</v>
@@ -3064,7 +3174,7 @@
         <v>549566</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3072,10 +3182,10 @@
         <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -3084,10 +3194,10 @@
         <v>34896</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G32" s="10">
+        <v>80</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>138</v>
@@ -3096,7 +3206,7 @@
         <v>549568</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3104,10 +3214,10 @@
         <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -3116,10 +3226,10 @@
         <v>42161</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G33" s="10">
+        <v>80</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>138</v>
@@ -3128,7 +3238,7 @@
         <v>549753</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3136,10 +3246,10 @@
         <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>533</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>32</v>
@@ -3148,10 +3258,10 @@
         <v>44693</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G34" s="10">
+        <v>80</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>138</v>
@@ -3160,7 +3270,7 @@
         <v>549754</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3168,10 +3278,10 @@
         <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>167</v>
+        <v>524</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -3180,10 +3290,10 @@
         <v>67837</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>411</v>
+        <v>493</v>
+      </c>
+      <c r="G35" s="10">
+        <v>600</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>138</v>
@@ -3192,7 +3302,7 @@
         <v>62274</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3200,10 +3310,10 @@
         <v>152</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -3212,10 +3322,10 @@
         <v>69916</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G36" s="10">
+        <v>80</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>138</v>
@@ -3224,7 +3334,7 @@
         <v>549840</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3232,10 +3342,10 @@
         <v>152</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>35</v>
@@ -3244,10 +3354,10 @@
         <v>69920</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G37" s="10">
+        <v>80</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>138</v>
@@ -3256,7 +3366,7 @@
         <v>549839</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3264,10 +3374,10 @@
         <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
@@ -3276,10 +3386,10 @@
         <v>69917</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G38" s="10">
+        <v>80</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>138</v>
@@ -3288,7 +3398,7 @@
         <v>549877</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3296,10 +3406,10 @@
         <v>152</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>37</v>
@@ -3308,10 +3418,10 @@
         <v>69921</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>410</v>
+        <v>515</v>
+      </c>
+      <c r="G39" s="10">
+        <v>80</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>138</v>
@@ -3320,7 +3430,7 @@
         <v>549861</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3328,10 +3438,10 @@
         <v>152</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>167</v>
+        <v>525</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -3340,10 +3450,10 @@
         <v>75547</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>409</v>
+        <v>516</v>
+      </c>
+      <c r="G40" s="10">
+        <v>100</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>138</v>
@@ -3352,7 +3462,7 @@
         <v>10127</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3360,10 +3470,10 @@
         <v>152</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
@@ -3372,10 +3482,10 @@
         <v>76410</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>402</v>
+        <v>506</v>
+      </c>
+      <c r="G41" s="10">
+        <v>90</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>138</v>
@@ -3384,7 +3494,7 @@
         <v>62059</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3392,10 +3502,10 @@
         <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>40</v>
@@ -3404,10 +3514,10 @@
         <v>76409</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>402</v>
+        <v>506</v>
+      </c>
+      <c r="G42" s="10">
+        <v>90</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>138</v>
@@ -3416,7 +3526,7 @@
         <v>62022</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3424,10 +3534,10 @@
         <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>41</v>
@@ -3436,10 +3546,10 @@
         <v>76561</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>412</v>
+        <v>517</v>
+      </c>
+      <c r="G43" s="10">
+        <v>130</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>138</v>
@@ -3448,7 +3558,7 @@
         <v>35321</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3456,10 +3566,10 @@
         <v>152</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>42</v>
@@ -3468,19 +3578,19 @@
         <v>76599</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G44" s="10">
+        <v>160</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3488,10 +3598,10 @@
         <v>152</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>43</v>
@@ -3500,19 +3610,19 @@
         <v>76597</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G45" s="10">
+        <v>160</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3520,10 +3630,10 @@
         <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>44</v>
@@ -3532,19 +3642,19 @@
         <v>76598</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G46" s="10">
+        <v>160</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3552,10 +3662,10 @@
         <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
@@ -3564,19 +3674,19 @@
         <v>76631</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>410</v>
+        <v>514</v>
+      </c>
+      <c r="G47" s="10">
+        <v>80</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3584,10 +3694,10 @@
         <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>46</v>
@@ -3596,19 +3706,19 @@
         <v>76609</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>410</v>
+        <v>514</v>
+      </c>
+      <c r="G48" s="10">
+        <v>80</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3616,10 +3726,10 @@
         <v>152</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>47</v>
@@ -3628,19 +3738,19 @@
         <v>76630</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>410</v>
+        <v>514</v>
+      </c>
+      <c r="G49" s="10">
+        <v>80</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3648,10 +3758,10 @@
         <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>48</v>
@@ -3660,19 +3770,19 @@
         <v>76600</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>410</v>
+        <v>514</v>
+      </c>
+      <c r="G50" s="10">
+        <v>80</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3680,10 +3790,10 @@
         <v>152</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>49</v>
@@ -3692,19 +3802,19 @@
         <v>76608</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>410</v>
+        <v>514</v>
+      </c>
+      <c r="G51" s="10">
+        <v>80</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3712,31 +3822,31 @@
         <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>413</v>
+        <v>494</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1250</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3744,10 +3854,10 @@
         <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>51</v>
@@ -3756,19 +3866,19 @@
         <v>76894</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G53" s="10">
+        <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3776,10 +3886,10 @@
         <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>52</v>
@@ -3788,19 +3898,19 @@
         <v>76893</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G54" s="10">
+        <v>110</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3808,10 +3918,10 @@
         <v>152</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>53</v>
@@ -3820,19 +3930,19 @@
         <v>76905</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G55" s="10">
+        <v>110</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3840,10 +3950,10 @@
         <v>152</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>54</v>
@@ -3852,19 +3962,19 @@
         <v>76900</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G56" s="10">
+        <v>110</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3872,10 +3982,10 @@
         <v>152</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>55</v>
@@ -3884,19 +3994,19 @@
         <v>76909</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G57" s="10">
+        <v>110</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3904,10 +4014,10 @@
         <v>152</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>56</v>
@@ -3916,19 +4026,19 @@
         <v>76904</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G58" s="10">
+        <v>110</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3936,10 +4046,10 @@
         <v>152</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>57</v>
@@ -3948,19 +4058,19 @@
         <v>76903</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
+      </c>
+      <c r="G59" s="10">
+        <v>110</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3968,10 +4078,10 @@
         <v>152</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>58</v>
@@ -3980,19 +4090,19 @@
         <v>76892</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G60" s="10">
+        <v>160</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -4000,10 +4110,10 @@
         <v>152</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>59</v>
@@ -4012,19 +4122,19 @@
         <v>76898</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G61" s="10">
+        <v>160</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4032,10 +4142,10 @@
         <v>152</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>60</v>
@@ -4044,19 +4154,19 @@
         <v>76908</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G62" s="10">
+        <v>160</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4064,10 +4174,10 @@
         <v>152</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>61</v>
@@ -4076,19 +4186,19 @@
         <v>76906</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G63" s="10">
+        <v>160</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4096,10 +4206,10 @@
         <v>152</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>62</v>
@@ -4108,19 +4218,19 @@
         <v>76897</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>405</v>
+        <v>512</v>
+      </c>
+      <c r="G64" s="10">
+        <v>160</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4128,10 +4238,10 @@
         <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>63</v>
@@ -4140,19 +4250,19 @@
         <v>78203</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>415</v>
+        <v>495</v>
+      </c>
+      <c r="G65" s="10">
+        <v>800</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>138</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -4161,22 +4271,22 @@
         <v>152</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>416</v>
+        <v>496</v>
+      </c>
+      <c r="G66" s="10">
+        <v>650</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>138</v>
@@ -4185,7 +4295,7 @@
         <v>138</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4193,10 +4303,10 @@
         <v>152</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>65</v>
@@ -4205,10 +4315,10 @@
         <v>79000</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>416</v>
+        <v>511</v>
+      </c>
+      <c r="G67" s="10">
+        <v>650</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>138</v>
@@ -4217,7 +4327,7 @@
         <v>138</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K67" s="4"/>
     </row>
@@ -4226,10 +4336,10 @@
         <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>66</v>
@@ -4240,7 +4350,7 @@
       <c r="F68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -4256,13 +4366,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>67</v>
@@ -4271,31 +4381,31 @@
         <v>32399</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>138</v>
+        <v>519</v>
+      </c>
+      <c r="G69" s="10">
+        <v>336</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>67</v>
@@ -4304,13 +4414,13 @@
         <v>138</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G70" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>138</v>
@@ -4322,13 +4432,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>67</v>
@@ -4337,13 +4447,13 @@
         <v>138</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G71" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>138</v>
@@ -4355,13 +4465,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>68</v>
@@ -4370,31 +4480,31 @@
         <v>38138</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G72" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>68</v>
@@ -4403,13 +4513,13 @@
         <v>138</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G73" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>138</v>
@@ -4421,13 +4531,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>68</v>
@@ -4436,13 +4546,13 @@
         <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G74" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>138</v>
@@ -4454,13 +4564,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>69</v>
@@ -4469,31 +4579,31 @@
         <v>21107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>138</v>
+        <v>520</v>
+      </c>
+      <c r="G75" s="10">
+        <v>336</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>69</v>
@@ -4502,13 +4612,13 @@
         <v>138</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G76" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>138</v>
@@ -4520,13 +4630,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>70</v>
@@ -4535,31 +4645,31 @@
         <v>36530</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G77" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>70</v>
@@ -4568,13 +4678,13 @@
         <v>138</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>138</v>
@@ -4586,13 +4696,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>71</v>
@@ -4601,13 +4711,13 @@
         <v>138</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G79" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>138</v>
@@ -4619,13 +4729,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>72</v>
@@ -4634,13 +4744,13 @@
         <v>138</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G80" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>138</v>
@@ -4652,13 +4762,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>73</v>
@@ -4669,7 +4779,7 @@
       <c r="F81" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -4685,13 +4795,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>74</v>
@@ -4700,9 +4810,9 @@
         <v>26678</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H82" s="2">
@@ -4712,19 +4822,19 @@
         <v>138</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>75</v>
@@ -4733,9 +4843,9 @@
         <v>26683</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H83" s="2">
@@ -4745,19 +4855,19 @@
         <v>138</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>76</v>
@@ -4766,9 +4876,9 @@
         <v>26715</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G84" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H84" s="2">
@@ -4778,19 +4888,19 @@
         <v>138</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>77</v>
@@ -4799,31 +4909,31 @@
         <v>77749</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G85" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>78</v>
@@ -4832,31 +4942,31 @@
         <v>77777</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G86" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>79</v>
@@ -4865,31 +4975,31 @@
         <v>78298</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G87" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>80</v>
@@ -4898,9 +5008,9 @@
         <v>77766</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G88" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H88" s="2">
@@ -4910,19 +5020,19 @@
         <v>138</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>81</v>
@@ -4931,31 +5041,31 @@
         <v>77725</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G89" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>82</v>
@@ -4964,31 +5074,31 @@
         <v>77795</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G90" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>83</v>
@@ -4997,31 +5107,31 @@
         <v>334389</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G91" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>84</v>
@@ -5030,31 +5140,31 @@
         <v>185319</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G92" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>85</v>
@@ -5063,31 +5173,31 @@
         <v>184758</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="I93" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>86</v>
@@ -5096,31 +5206,31 @@
         <v>184522</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>437</v>
+        <v>377</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>87</v>
@@ -5129,31 +5239,31 @@
         <v>184520</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G95" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>88</v>
@@ -5162,31 +5272,31 @@
         <v>183891</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G96" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G96" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>89</v>
@@ -5195,31 +5305,31 @@
         <v>183678</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G97" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>90</v>
@@ -5228,31 +5338,31 @@
         <v>791454</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G98" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G98" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>537</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>91</v>
@@ -5261,31 +5371,31 @@
         <v>255436</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G99" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G99" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>92</v>
@@ -5294,31 +5404,31 @@
         <v>526292</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G100" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>93</v>
@@ -5327,31 +5437,31 @@
         <v>526291</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G101" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G101" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>94</v>
@@ -5360,31 +5470,31 @@
         <v>541871</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G102" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G102" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>95</v>
@@ -5393,31 +5503,31 @@
         <v>264508</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G103" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G103" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>96</v>
@@ -5426,31 +5536,31 @@
         <v>264507</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G104" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G104" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>139</v>
@@ -5459,31 +5569,31 @@
         <v>367309</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G105" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G105" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>97</v>
@@ -5492,31 +5602,31 @@
         <v>336639</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G106" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>98</v>
@@ -5525,31 +5635,31 @@
         <v>336640</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G107" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G107" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>99</v>
@@ -5558,31 +5668,31 @@
         <v>336645</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G108" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>100</v>
@@ -5591,31 +5701,31 @@
         <v>336642</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G109" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>101</v>
@@ -5624,31 +5734,31 @@
         <v>336647</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G110" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G110" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>102</v>
@@ -5657,31 +5767,31 @@
         <v>336641</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G111" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G111" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H111" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>537</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>103</v>
@@ -5690,46 +5800,46 @@
         <v>336992</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G112" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G112" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G113" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G113" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>138</v>
@@ -5740,28 +5850,28 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D114" s="2">
         <v>2021</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G114" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G114" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>138</v>
@@ -5772,13 +5882,13 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>104</v>
@@ -5787,31 +5897,31 @@
         <v>103761</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G115" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G115" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K115" s="4"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>105</v>
@@ -5820,31 +5930,31 @@
         <v>103824</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G116" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G116" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>106</v>
@@ -5853,31 +5963,31 @@
         <v>269554</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G117" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G117" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K117" s="4"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>107</v>
@@ -5886,31 +5996,31 @@
         <v>269552</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G118" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G118" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>108</v>
@@ -5919,31 +6029,31 @@
         <v>68448</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G119" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G119" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>109</v>
@@ -5952,31 +6062,31 @@
         <v>68472</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G120" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K120" s="4"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>110</v>
@@ -5985,31 +6095,31 @@
         <v>208968</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G121" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G121" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>111</v>
@@ -6018,31 +6128,31 @@
         <v>208894</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G122" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G122" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>112</v>
@@ -6051,31 +6161,31 @@
         <v>49505</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G123" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G123" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>113</v>
@@ -6084,31 +6194,31 @@
         <v>202215</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G124" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G124" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K124" s="4"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>114</v>
@@ -6117,31 +6227,31 @@
         <v>184165</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G125" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G125" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K125" s="4"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>115</v>
@@ -6150,31 +6260,31 @@
         <v>189506</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G126" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G126" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K126" s="4"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>116</v>
@@ -6183,31 +6293,31 @@
         <v>35816</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G127" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>117</v>
@@ -6216,31 +6326,31 @@
         <v>298474</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G128" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>118</v>
@@ -6249,31 +6359,31 @@
         <v>294242</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G129" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G129" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K129" s="4"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>119</v>
@@ -6282,31 +6392,31 @@
         <v>298958</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G130" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>120</v>
@@ -6315,31 +6425,31 @@
         <v>49080</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G131" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G131" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K131" s="4"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>121</v>
@@ -6348,31 +6458,31 @@
         <v>49081</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G132" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K132" s="4"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>122</v>
@@ -6381,31 +6491,31 @@
         <v>49082</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G133" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G133" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>123</v>
@@ -6414,31 +6524,31 @@
         <v>49034</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G134" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G134" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>124</v>
@@ -6447,31 +6557,31 @@
         <v>48569</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G135" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G135" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K135" s="4"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>125</v>
@@ -6480,31 +6590,31 @@
         <v>48568</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G136" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G136" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K136" s="4"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>126</v>
@@ -6513,31 +6623,31 @@
         <v>48578</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G137" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>127</v>
@@ -6546,31 +6656,31 @@
         <v>48579</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G138" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G138" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K138" s="4"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>128</v>
@@ -6579,31 +6689,31 @@
         <v>22088</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G139" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G139" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K139" s="4"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>129</v>
@@ -6612,31 +6722,31 @@
         <v>41903</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G140" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G140" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K140" s="4"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>130</v>
@@ -6645,31 +6755,31 @@
         <v>41913</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G141" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G141" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K141" s="4"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>131</v>
@@ -6678,31 +6788,31 @@
         <v>12235</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G142" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G142" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K142" s="4"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>132</v>
@@ -6711,31 +6821,31 @@
         <v>22651</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G143" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G143" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K143" s="4"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>133</v>
@@ -6744,31 +6854,31 @@
         <v>36021</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G144" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K144" s="4"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>134</v>
@@ -6777,34 +6887,34 @@
         <v>36022</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G145" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>138</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="K145" s="4"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>529</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>138</v>
@@ -6812,14 +6922,14 @@
       <c r="F146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I146" s="3" t="s">
-        <v>138</v>
+      <c r="I146" s="3">
+        <v>45086</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>138</v>
@@ -6828,16 +6938,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>138</v>
@@ -6845,7 +6955,7 @@
       <c r="F147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -6864,28 +6974,28 @@
         <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>524</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="E148" s="2">
+        <v>67263</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I148" s="3">
-        <v>45086</v>
+      <c r="I148" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>138</v>
@@ -6897,21 +7007,19 @@
         <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E149" s="2"/>
       <c r="F149" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="10" t="s">
         <v>138</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -6926,74 +7034,1651 @@
       <c r="K149" s="4"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="C150" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C151" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E150" s="2">
-        <v>67263</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K150" s="4"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="B152" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G152" s="11">
+        <v>350</v>
+      </c>
+      <c r="I152" s="3">
+        <v>31213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K151" s="4"/>
+      <c r="B153" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G153" s="11">
+        <v>60</v>
+      </c>
+      <c r="I153" s="3">
+        <v>551148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G154" s="11">
+        <v>60</v>
+      </c>
+      <c r="I154" s="3">
+        <v>551149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G155" s="11">
+        <v>60</v>
+      </c>
+      <c r="I155" s="3">
+        <v>551150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G164" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G165" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="WRwemcA0nyhlBsNJB+ZrdRdmiulp5J6snsQZWL5Ah84Ed5Vozay/STzz6Yal5yBJ6ZZSR7Wbira9Zl6KkC6oHw==" saltValue="VcbLbYiFYBn8Dk3MVK5/Wg==" spinCount="100000" sqref="B106:B112" name="Range1_2"/>
   </protectedRanges>
+  <autoFilter ref="A1:L177" xr:uid="{6460FE9F-EF3B-4D4D-BCC7-D162649A6FCD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C154:D168">
+    <sortCondition ref="D154:D168"/>
+  </sortState>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0053DE-C8BB-4AC6-8CCF-946C76A3389B}">
+  <dimension ref="D1:E168"/>
+  <sheetViews>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2">
+        <v>8407</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6">
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25">
+        <v>9031</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27">
+        <v>9033</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28">
+        <v>8688</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31">
+        <v>9448</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32">
+        <v>9449</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>249</v>
+      </c>
+      <c r="E65">
+        <v>30308</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66">
+        <v>30895</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67">
+        <v>30902</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>254</v>
+      </c>
+      <c r="E73">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>254</v>
+      </c>
+      <c r="E76">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84">
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85">
+        <v>30238</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86">
+        <v>30249</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87">
+        <v>30599</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88">
+        <v>30247</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92">
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93">
+        <v>7479</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>271</v>
+      </c>
+      <c r="E95">
+        <v>7481</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96">
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97">
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>275</v>
+      </c>
+      <c r="E99">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>276</v>
+      </c>
+      <c r="E100">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>277</v>
+      </c>
+      <c r="E101">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>278</v>
+      </c>
+      <c r="E102">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>279</v>
+      </c>
+      <c r="E103">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>280</v>
+      </c>
+      <c r="E104">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105">
+        <v>8861</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>282</v>
+      </c>
+      <c r="E106">
+        <v>30822</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>283</v>
+      </c>
+      <c r="E107">
+        <v>30823</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>284</v>
+      </c>
+      <c r="E108">
+        <v>30824</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109">
+        <v>30825</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E110">
+        <v>30826</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>287</v>
+      </c>
+      <c r="E111">
+        <v>30827</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>288</v>
+      </c>
+      <c r="E112">
+        <v>30828</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>289</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>290</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>291</v>
+      </c>
+      <c r="E115">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>292</v>
+      </c>
+      <c r="E116">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>293</v>
+      </c>
+      <c r="E117">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125">
+        <v>8583</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126">
+        <v>8584</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>304</v>
+      </c>
+      <c r="E128">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>305</v>
+      </c>
+      <c r="E129">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>306</v>
+      </c>
+      <c r="E130">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>307</v>
+      </c>
+      <c r="E131">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>310</v>
+      </c>
+      <c r="E134">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>311</v>
+      </c>
+      <c r="E135">
+        <v>8258</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>312</v>
+      </c>
+      <c r="E136">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>313</v>
+      </c>
+      <c r="E137">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>314</v>
+      </c>
+      <c r="E138">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>315</v>
+      </c>
+      <c r="E139">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>316</v>
+      </c>
+      <c r="E140">
+        <v>9346</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E142">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>319</v>
+      </c>
+      <c r="E143">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>320</v>
+      </c>
+      <c r="E144">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>321</v>
+      </c>
+      <c r="E145">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>322</v>
+      </c>
+      <c r="E146">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147">
+        <v>30593</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>324</v>
+      </c>
+      <c r="E148">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>325</v>
+      </c>
+      <c r="E149">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>468</v>
+      </c>
+      <c r="E150">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>464</v>
+      </c>
+      <c r="E151">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>460</v>
+      </c>
+      <c r="E152">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>471</v>
+      </c>
+      <c r="E153">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>469</v>
+      </c>
+      <c r="E154">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>470</v>
+      </c>
+      <c r="E155">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>466</v>
+      </c>
+      <c r="E156">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>459</v>
+      </c>
+      <c r="E157">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>458</v>
+      </c>
+      <c r="E158">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>467</v>
+      </c>
+      <c r="E159">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>461</v>
+      </c>
+      <c r="E160">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>457</v>
+      </c>
+      <c r="E161">
+        <v>8399</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>462</v>
+      </c>
+      <c r="E162">
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>455</v>
+      </c>
+      <c r="E163">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>456</v>
+      </c>
+      <c r="E164">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>463</v>
+      </c>
+      <c r="E165">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>465</v>
+      </c>
+      <c r="E166">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>483</v>
+      </c>
+      <c r="E167">
+        <v>8393</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>486</v>
+      </c>
+      <c r="E168">
+        <v>8524</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
